--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1663.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1663.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.672752994686171</v>
+        <v>3.239412069320679</v>
       </c>
       <c r="B1">
-        <v>3.239991045807498</v>
+        <v>2.448537826538086</v>
       </c>
       <c r="C1">
-        <v>2.662067622597891</v>
+        <v>2.00375771522522</v>
       </c>
       <c r="D1">
-        <v>2.34035194772398</v>
+        <v>2.029806852340698</v>
       </c>
       <c r="E1">
-        <v>1.715971490615671</v>
+        <v>2.294777393341064</v>
       </c>
     </row>
   </sheetData>
